--- a/src/test/resources/サーバチェックシート.xlsx
+++ b/src/test/resources/サーバチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787"/>
+    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -27,10 +27,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1559251174" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1559251174" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1559251174" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1559251174"/>
+      <pm:revision xmlns:pm="smNativeData" day="1559679169" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1559679169" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1559679169" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1559679169"/>
     </ext>
   </extLst>
 </workbook>
@@ -795,12 +795,12 @@
     <t>vm.name</t>
   </si>
   <si>
+    <t>仮想マシン名</t>
+  </si>
+  <si>
     <t>vCenter</t>
   </si>
   <si>
-    <t>仮想マシン名</t>
-  </si>
-  <si>
     <t>CPU割り当て数</t>
   </si>
   <si>
@@ -1011,10 +1011,10 @@
     <t>vm_floppy</t>
   </si>
   <si>
+    <t>Get-Vm $vm | Get-FloppyDriveコマンドで、フロッピィディスク構成を検索</t>
+  </si>
+  <si>
     <t>vCenter</t>
-  </si>
-  <si>
-    <t>Get-Vm $vm | Get-FloppyDriveコマンドで、フロッピィディスク構成を検索</t>
   </si>
   <si>
     <t>Y</t>
@@ -1188,10 +1188,10 @@
     <t>/etc/inittabから、OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索</t>
   </si>
   <si>
+    <t>コンソール設定(GUI、CUI)</t>
+  </si>
+  <si>
     <t>Linux</t>
-  </si>
-  <si>
-    <t>コンソール設定(GUI、CUI)</t>
   </si>
   <si>
     <t>DNS設定</t>
@@ -2220,7 +2220,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -2235,7 +2235,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2251,7 +2251,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2267,7 +2267,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2284,7 +2284,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -2301,7 +2301,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -2317,7 +2317,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -2333,7 +2333,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2349,7 +2349,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559251174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2371,7 +2371,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2382,7 +2382,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2393,7 +2393,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2413,7 +2413,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2424,7 +2424,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2435,7 +2435,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2446,7 +2446,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2457,7 +2457,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2468,7 +2468,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2479,7 +2479,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2490,7 +2490,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2501,7 +2501,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2512,7 +2512,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2523,7 +2523,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2534,7 +2534,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2545,7 +2545,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2556,7 +2556,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2567,7 +2567,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2578,7 +2578,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2589,21 +2589,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559251174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="25">
@@ -2622,7 +2614,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174"/>
+          <pm:border xmlns:pm="smNativeData" id="1559679169"/>
         </ext>
       </extLst>
     </border>
@@ -2641,7 +2633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2665,7 +2657,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2689,7 +2681,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2713,7 +2705,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2736,7 +2728,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2760,7 +2752,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2781,7 +2773,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2803,7 +2795,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2824,7 +2816,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2846,7 +2838,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2868,7 +2860,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2889,7 +2881,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2911,7 +2903,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2934,7 +2926,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2956,7 +2948,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2979,7 +2971,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3000,7 +2992,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174"/>
+          <pm:border xmlns:pm="smNativeData" id="1559679169"/>
         </ext>
       </extLst>
     </border>
@@ -3019,7 +3011,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3040,7 +3032,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3064,7 +3056,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3088,7 +3080,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3111,7 +3103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -3135,7 +3127,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174">
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3145,7 +3137,7 @@
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
@@ -3154,12 +3146,15 @@
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559251174"/>
+          <pm:border xmlns:pm="smNativeData" id="1559679169">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
         </ext>
       </extLst>
     </border>
@@ -3178,7 +3173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3332,6 +3327,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3342,10 +3343,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1559251174" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1559679169" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1559251174" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1559679169" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -6509,7 +6510,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6520,16 +6521,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6576,13 +6577,13 @@
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -9484,7 +9485,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9495,16 +9496,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9551,13 +9552,13 @@
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -12503,7 +12504,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12514,16 +12515,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -12563,13 +12564,13 @@
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>91</v>
@@ -14585,7 +14586,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14596,16 +14597,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14618,7 +14619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="85" workbookViewId="0">
+    <sheetView view="normal" zoomScale="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -15421,7 +15422,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15432,16 +15433,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15598,7 +15599,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15647,7 +15648,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15712,7 +15713,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15773,7 +15774,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15820,7 +15821,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15861,7 +15862,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15908,7 +15909,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15941,7 +15942,7 @@
       <c r="Z11" s="36"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559251174" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -16089,7 +16090,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16098,16 +16099,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16196,7 +16197,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16205,16 +16206,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16225,7 +16226,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G86"/>
+  <dimension ref="A3:H86"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16237,8 +16238,8 @@
     <col min="2" max="2" width="17.245455" customWidth="1"/>
     <col min="3" max="3" width="35.500000" customWidth="1"/>
     <col min="4" max="4" width="31.745455" customWidth="1"/>
-    <col min="5" max="6" width="8.745455" customWidth="1"/>
-    <col min="7" max="7" width="68.372727" customWidth="1"/>
+    <col min="5" max="5" width="8.745455" customWidth="1"/>
+    <col min="6" max="6" width="68.372727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -16248,9 +16249,8 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>87</v>
       </c>
@@ -16264,16 +16264,16 @@
         <v>243</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="42"/>
       <c r="B5" s="44" t="s">
         <v>249</v>
@@ -16284,15 +16284,15 @@
       <c r="D5" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="44" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="42"/>
       <c r="B6" s="44" t="s">
         <v>249</v>
@@ -16303,15 +16303,15 @@
       <c r="D6" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="42"/>
       <c r="B7" s="44" t="s">
         <v>249</v>
@@ -16322,15 +16322,15 @@
       <c r="D7" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="42"/>
       <c r="B8" s="44" t="s">
         <v>249</v>
@@ -16341,15 +16341,15 @@
       <c r="D8" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="42"/>
       <c r="B9" s="44" t="s">
         <v>249</v>
@@ -16360,15 +16360,15 @@
       <c r="D9" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="42"/>
       <c r="B10" s="44" t="s">
         <v>249</v>
@@ -16379,15 +16379,15 @@
       <c r="D10" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="42" t="s">
         <v>268</v>
       </c>
@@ -16400,15 +16400,15 @@
       <c r="D11" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="42"/>
       <c r="B12" s="42" t="s">
         <v>272</v>
@@ -16419,15 +16419,15 @@
       <c r="D12" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
         <v>272</v>
@@ -16438,15 +16438,15 @@
       <c r="D13" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="42"/>
       <c r="B14" s="42" t="s">
         <v>272</v>
@@ -16457,15 +16457,15 @@
       <c r="D14" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="44" t="s">
         <v>268</v>
       </c>
@@ -16478,15 +16478,15 @@
       <c r="D15" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="45" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="42"/>
       <c r="B16" s="44" t="s">
         <v>285</v>
@@ -16497,15 +16497,15 @@
       <c r="D16" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
+        <v>286</v>
+      </c>
       <c r="G16" s="42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="42"/>
       <c r="B17" s="44" t="s">
         <v>285</v>
@@ -16516,15 +16516,15 @@
       <c r="D17" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
+        <v>290</v>
+      </c>
       <c r="G17" s="42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="42"/>
       <c r="B18" s="44" t="s">
         <v>285</v>
@@ -16535,15 +16535,15 @@
       <c r="D18" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
+        <v>291</v>
+      </c>
       <c r="G18" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="42" t="s">
         <v>293</v>
       </c>
@@ -16556,15 +16556,15 @@
       <c r="D19" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="42" t="s">
         <v>268</v>
       </c>
@@ -16578,16 +16578,16 @@
         <v>136</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="43" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="42" t="s">
         <v>268</v>
       </c>
@@ -16601,16 +16601,16 @@
         <v>301</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="43" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="42" t="s">
         <v>268</v>
       </c>
@@ -16624,16 +16624,16 @@
         <v>305</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="43" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="44"/>
       <c r="B23" s="42" t="s">
         <v>307</v>
@@ -16644,15 +16644,15 @@
       <c r="D23" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="43" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="42" t="s">
         <v>268</v>
       </c>
@@ -16665,15 +16665,15 @@
       <c r="D24" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="43" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="42" t="s">
         <v>268</v>
       </c>
@@ -16686,15 +16686,15 @@
       <c r="D25" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="43" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="42" t="s">
         <v>268</v>
       </c>
@@ -16707,15 +16707,15 @@
       <c r="D26" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="43" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="42" t="s">
         <v>268</v>
       </c>
@@ -16728,15 +16728,15 @@
       <c r="D27" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43" t="s">
+      <c r="E27" s="42"/>
+      <c r="F27" s="43" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="42" t="s">
         <v>268</v>
       </c>
@@ -16749,15 +16749,15 @@
       <c r="D28" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="42" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="42" t="s">
         <v>326</v>
       </c>
@@ -16770,15 +16770,15 @@
       <c r="D29" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="43" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
         <v>268</v>
       </c>
@@ -16791,15 +16791,15 @@
       <c r="D30" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
         <v>268</v>
       </c>
@@ -16812,15 +16812,15 @@
       <c r="D31" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>268</v>
       </c>
@@ -16833,15 +16833,15 @@
       <c r="D32" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
         <v>330</v>
@@ -16852,15 +16852,15 @@
       <c r="D33" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
         <v>330</v>
@@ -16871,15 +16871,15 @@
       <c r="D34" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
         <v>268</v>
       </c>
@@ -16892,15 +16892,15 @@
       <c r="D35" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
         <v>330</v>
@@ -16911,15 +16911,15 @@
       <c r="D36" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
         <v>330</v>
@@ -16930,15 +16930,15 @@
       <c r="D37" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
         <v>268</v>
       </c>
@@ -16951,15 +16951,15 @@
       <c r="D38" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
         <v>351</v>
       </c>
@@ -16972,15 +16972,15 @@
       <c r="D39" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
         <v>351</v>
       </c>
@@ -16993,15 +16993,15 @@
       <c r="D40" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
         <v>351</v>
       </c>
@@ -17014,15 +17014,15 @@
       <c r="D41" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="11"/>
+      <c r="F41" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
         <v>47</v>
@@ -17033,15 +17033,15 @@
       <c r="D42" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>351</v>
       </c>
@@ -17054,15 +17054,15 @@
       <c r="D43" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
         <v>351</v>
       </c>
@@ -17075,15 +17075,15 @@
       <c r="D44" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
         <v>351</v>
       </c>
@@ -17096,15 +17096,15 @@
       <c r="D45" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
         <v>351</v>
       </c>
@@ -17117,15 +17117,15 @@
       <c r="D46" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
         <v>47</v>
@@ -17136,15 +17136,15 @@
       <c r="D47" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
         <v>351</v>
       </c>
@@ -17157,15 +17157,15 @@
       <c r="D48" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
         <v>351</v>
       </c>
@@ -17178,15 +17178,15 @@
       <c r="D49" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="11" t="s">
         <v>351</v>
       </c>
@@ -17199,15 +17199,15 @@
       <c r="D50" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>47</v>
@@ -17218,15 +17218,15 @@
       <c r="D51" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="11" t="s">
         <v>351</v>
       </c>
@@ -17239,15 +17239,15 @@
       <c r="D52" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="11" t="s">
         <v>351</v>
       </c>
@@ -17260,15 +17260,15 @@
       <c r="D53" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="11" t="s">
         <v>351</v>
       </c>
@@ -17281,15 +17281,15 @@
       <c r="D54" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="11" t="s">
         <v>351</v>
       </c>
@@ -17302,15 +17302,15 @@
       <c r="D55" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="11" t="s">
         <v>351</v>
       </c>
@@ -17323,15 +17323,15 @@
       <c r="D56" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="11" t="s">
         <v>351</v>
       </c>
@@ -17344,15 +17344,15 @@
       <c r="D57" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="11" t="s">
         <v>351</v>
       </c>
@@ -17365,15 +17365,15 @@
       <c r="D58" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
         <v>412</v>
       </c>
@@ -17386,15 +17386,15 @@
       <c r="D59" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="11" t="s">
         <v>412</v>
       </c>
@@ -17407,15 +17407,15 @@
       <c r="D60" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="11"/>
+      <c r="F60" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
         <v>420</v>
@@ -17426,15 +17426,15 @@
       <c r="D61" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="11"/>
+      <c r="F61" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="s">
         <v>420</v>
@@ -17445,15 +17445,15 @@
       <c r="D62" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="11"/>
+      <c r="F62" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>420</v>
@@ -17464,15 +17464,15 @@
       <c r="D63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="11"/>
+      <c r="F63" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
         <v>420</v>
@@ -17483,15 +17483,15 @@
       <c r="D64" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="11"/>
+      <c r="F64" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
         <v>420</v>
@@ -17502,15 +17502,15 @@
       <c r="D65" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
         <v>268</v>
       </c>
@@ -17523,15 +17523,15 @@
       <c r="D66" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="11"/>
+      <c r="F66" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="s">
         <v>434</v>
@@ -17542,15 +17542,15 @@
       <c r="D67" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G67" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="s">
         <v>434</v>
@@ -17561,15 +17561,15 @@
       <c r="D68" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="11"/>
+      <c r="F68" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
         <v>268</v>
       </c>
@@ -17582,15 +17582,15 @@
       <c r="D69" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="11"/>
+      <c r="F69" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
         <v>268</v>
       </c>
@@ -17603,15 +17603,15 @@
       <c r="D70" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="11"/>
+      <c r="F70" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
         <v>268</v>
       </c>
@@ -17624,15 +17624,15 @@
       <c r="D71" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="11"/>
+      <c r="F71" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="11" t="s">
         <v>268</v>
       </c>
@@ -17646,16 +17646,16 @@
         <v>450</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="11" t="s">
         <v>268</v>
       </c>
@@ -17669,16 +17669,16 @@
         <v>216</v>
       </c>
       <c r="E73" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="11" t="s">
         <v>268</v>
       </c>
@@ -17691,15 +17691,15 @@
       <c r="D74" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="11"/>
+      <c r="F74" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="11" t="s">
         <v>268</v>
       </c>
@@ -17712,15 +17712,15 @@
       <c r="D75" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="11"/>
+      <c r="F75" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="11" t="s">
         <v>268</v>
       </c>
@@ -17733,15 +17733,15 @@
       <c r="D76" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="11"/>
+      <c r="F76" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>454</v>
@@ -17752,15 +17752,15 @@
       <c r="D77" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="11"/>
+      <c r="F77" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="11" t="s">
         <v>268</v>
       </c>
@@ -17774,16 +17774,16 @@
         <v>468</v>
       </c>
       <c r="E78" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="11" t="s">
         <v>268</v>
       </c>
@@ -17797,16 +17797,16 @@
         <v>203</v>
       </c>
       <c r="E79" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="11" t="s">
         <v>351</v>
       </c>
@@ -17820,16 +17820,16 @@
         <v>474</v>
       </c>
       <c r="E80" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="11" t="s">
         <v>351</v>
       </c>
@@ -17843,16 +17843,16 @@
         <v>478</v>
       </c>
       <c r="E81" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="s">
         <v>185</v>
@@ -17863,15 +17863,15 @@
       <c r="D82" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="11"/>
+      <c r="F82" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="11" t="s">
         <v>351</v>
       </c>
@@ -17885,16 +17885,16 @@
         <v>484</v>
       </c>
       <c r="E83" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="11" t="s">
         <v>486</v>
       </c>
@@ -17908,16 +17908,16 @@
         <v>489</v>
       </c>
       <c r="E84" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="11" t="s">
         <v>486</v>
       </c>
@@ -17930,15 +17930,15 @@
       <c r="D85" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="11"/>
+      <c r="F85" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="11" t="s">
         <v>486</v>
       </c>
@@ -17951,19 +17951,19 @@
       <c r="D86" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="11"/>
+      <c r="F86" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17974,16 +17974,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17994,10 +17994,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:G84"/>
+  <dimension ref="A4:H84"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -18005,12 +18005,12 @@
     <col min="1" max="1" width="4.500000" customWidth="1" style="3"/>
     <col min="2" max="2" width="19.500000" customWidth="1" style="3"/>
     <col min="3" max="4" width="37.500000" customWidth="1" style="3"/>
-    <col min="5" max="5" width="8.872727" customWidth="1" style="3"/>
-    <col min="6" max="6" width="10.000000" customWidth="1" style="3"/>
-    <col min="7" max="7" width="60.127273" customWidth="1" style="3"/>
+    <col min="5" max="5" width="10.000000" customWidth="1" style="3"/>
+    <col min="6" max="6" width="60.127273" customWidth="1" style="3"/>
+    <col min="7" max="7" width="8.845455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="46" t="s">
         <v>87</v>
       </c>
@@ -18024,16 +18024,16 @@
         <v>243</v>
       </c>
       <c r="E4" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="42"/>
       <c r="B5" s="44" t="s">
         <v>249</v>
@@ -18044,15 +18044,15 @@
       <c r="D5" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="42"/>
       <c r="B6" s="44" t="s">
         <v>249</v>
@@ -18063,15 +18063,15 @@
       <c r="D6" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="42"/>
       <c r="B7" s="44" t="s">
         <v>249</v>
@@ -18082,15 +18082,15 @@
       <c r="D7" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="42"/>
       <c r="B8" s="44" t="s">
         <v>249</v>
@@ -18101,15 +18101,15 @@
       <c r="D8" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="42"/>
       <c r="B9" s="44" t="s">
         <v>249</v>
@@ -18120,15 +18120,15 @@
       <c r="D9" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="42"/>
       <c r="B10" s="44" t="s">
         <v>249</v>
@@ -18139,15 +18139,15 @@
       <c r="D10" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="42" t="s">
         <v>268</v>
       </c>
@@ -18160,15 +18160,15 @@
       <c r="D11" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="42"/>
       <c r="B12" s="42" t="s">
         <v>272</v>
@@ -18179,15 +18179,15 @@
       <c r="D12" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
         <v>272</v>
@@ -18198,15 +18198,15 @@
       <c r="D13" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="42"/>
       <c r="B14" s="42" t="s">
         <v>272</v>
@@ -18217,15 +18217,15 @@
       <c r="D14" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="44" t="s">
         <v>268</v>
       </c>
@@ -18238,15 +18238,15 @@
       <c r="D15" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="45" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="42"/>
       <c r="B16" s="44" t="s">
         <v>285</v>
@@ -18257,15 +18257,15 @@
       <c r="D16" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
+        <v>286</v>
+      </c>
       <c r="G16" s="42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="42"/>
       <c r="B17" s="44" t="s">
         <v>285</v>
@@ -18276,15 +18276,15 @@
       <c r="D17" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
+        <v>290</v>
+      </c>
       <c r="G17" s="42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="42"/>
       <c r="B18" s="44" t="s">
         <v>285</v>
@@ -18295,15 +18295,15 @@
       <c r="D18" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42" t="s">
+        <v>291</v>
+      </c>
       <c r="G18" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="42" t="s">
         <v>268</v>
       </c>
@@ -18316,15 +18316,15 @@
       <c r="D19" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="42" t="s">
         <v>268</v>
       </c>
@@ -18338,16 +18338,16 @@
         <v>136</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="43" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="42" t="s">
         <v>268</v>
       </c>
@@ -18361,16 +18361,16 @@
         <v>301</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="43" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="42" t="s">
         <v>268</v>
       </c>
@@ -18384,16 +18384,16 @@
         <v>305</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="43" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="44"/>
       <c r="B23" s="42" t="s">
         <v>307</v>
@@ -18404,15 +18404,15 @@
       <c r="D23" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="43" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="42" t="s">
         <v>268</v>
       </c>
@@ -18425,15 +18425,15 @@
       <c r="D24" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="43" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="42" t="s">
         <v>268</v>
       </c>
@@ -18446,15 +18446,15 @@
       <c r="D25" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="43" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="42" t="s">
         <v>268</v>
       </c>
@@ -18467,15 +18467,15 @@
       <c r="D26" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="43" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="42" t="s">
         <v>268</v>
       </c>
@@ -18488,15 +18488,15 @@
       <c r="D27" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43" t="s">
+      <c r="E27" s="42"/>
+      <c r="F27" s="43" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="42" t="s">
         <v>268</v>
       </c>
@@ -18509,15 +18509,15 @@
       <c r="D28" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="42"/>
+      <c r="F28" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="42" t="s">
         <v>268</v>
       </c>
@@ -18530,15 +18530,15 @@
       <c r="D29" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="E29" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="43" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="47"/>
       <c r="B30" s="47" t="s">
         <v>497</v>
@@ -18549,15 +18549,15 @@
       <c r="D30" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="47"/>
+      <c r="F30" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="G30" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="47"/>
       <c r="B31" s="47" t="s">
         <v>497</v>
@@ -18568,15 +18568,15 @@
       <c r="D31" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="47"/>
+      <c r="F31" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="G31" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="47"/>
       <c r="B32" s="47" t="s">
         <v>497</v>
@@ -18587,15 +18587,15 @@
       <c r="D32" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="47"/>
+      <c r="F32" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="G32" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="47"/>
       <c r="B33" s="47" t="s">
         <v>497</v>
@@ -18606,15 +18606,15 @@
       <c r="D33" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="47"/>
+      <c r="F33" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="G33" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="47"/>
       <c r="B34" s="47" t="s">
         <v>497</v>
@@ -18625,15 +18625,15 @@
       <c r="D34" s="47" t="s">
         <v>507</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="47"/>
+      <c r="F34" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="G34" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="47" t="s">
         <v>268</v>
       </c>
@@ -18646,15 +18646,15 @@
       <c r="D35" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="47"/>
+      <c r="F35" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="G35" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="47"/>
       <c r="B36" s="11" t="s">
         <v>510</v>
@@ -18665,15 +18665,15 @@
       <c r="D36" s="47" t="s">
         <v>512</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="47"/>
+      <c r="F36" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G36" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="47"/>
       <c r="B37" s="11" t="s">
         <v>510</v>
@@ -18684,15 +18684,15 @@
       <c r="D37" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="47"/>
+      <c r="F37" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="G37" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="47"/>
       <c r="B38" s="11" t="s">
         <v>510</v>
@@ -18703,15 +18703,15 @@
       <c r="D38" s="47" t="s">
         <v>517</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="47"/>
+      <c r="F38" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="G38" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="47"/>
       <c r="B39" s="11" t="s">
         <v>510</v>
@@ -18722,15 +18722,15 @@
       <c r="D39" s="47" t="s">
         <v>520</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="47"/>
+      <c r="F39" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="G39" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="47" t="s">
         <v>268</v>
       </c>
@@ -18743,15 +18743,15 @@
       <c r="D40" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="47"/>
+      <c r="F40" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="G40" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="47"/>
       <c r="B41" s="11" t="s">
         <v>510</v>
@@ -18762,15 +18762,15 @@
       <c r="D41" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="G41" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="47"/>
       <c r="B42" s="11" t="s">
         <v>510</v>
@@ -18781,15 +18781,15 @@
       <c r="D42" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="G42" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="47"/>
       <c r="B43" s="11" t="s">
         <v>510</v>
@@ -18800,15 +18800,15 @@
       <c r="D43" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="G43" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="47"/>
       <c r="B44" s="11" t="s">
         <v>510</v>
@@ -18819,15 +18819,15 @@
       <c r="D44" s="47" t="s">
         <v>531</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="47"/>
+      <c r="F44" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="G44" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="47" t="s">
         <v>268</v>
       </c>
@@ -18840,15 +18840,15 @@
       <c r="D45" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="47"/>
+      <c r="F45" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="G45" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="47" t="s">
         <v>351</v>
       </c>
@@ -18862,16 +18862,16 @@
         <v>536</v>
       </c>
       <c r="E46" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="G46" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="47" t="s">
         <v>351</v>
       </c>
@@ -18884,15 +18884,15 @@
       <c r="D47" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="47"/>
+      <c r="F47" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="G47" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="47" t="s">
         <v>351</v>
       </c>
@@ -18905,15 +18905,15 @@
       <c r="D48" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="47"/>
+      <c r="F48" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="G48" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="47" t="s">
         <v>268</v>
       </c>
@@ -18926,15 +18926,15 @@
       <c r="D49" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="47"/>
+      <c r="F49" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="G49" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="47" t="s">
         <v>545</v>
       </c>
@@ -18947,15 +18947,15 @@
       <c r="D50" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="G50" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="47"/>
       <c r="B51" s="11" t="s">
         <v>47</v>
@@ -18966,15 +18966,15 @@
       <c r="D51" s="47" t="s">
         <v>550</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="47"/>
+      <c r="F51" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="G51" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="47"/>
       <c r="B52" s="11" t="s">
         <v>47</v>
@@ -18985,15 +18985,15 @@
       <c r="D52" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="47"/>
+      <c r="F52" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="G52" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="47" t="s">
         <v>351</v>
       </c>
@@ -19007,16 +19007,16 @@
         <v>554</v>
       </c>
       <c r="E53" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>555</v>
+      </c>
+      <c r="G53" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="47" t="s">
         <v>351</v>
       </c>
@@ -19030,16 +19030,16 @@
         <v>557</v>
       </c>
       <c r="E54" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F54" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G54" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="47" t="s">
         <v>351</v>
       </c>
@@ -19053,16 +19053,16 @@
         <v>560</v>
       </c>
       <c r="E55" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F55" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="G55" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="47" t="s">
         <v>351</v>
       </c>
@@ -19075,15 +19075,15 @@
       <c r="D56" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="47"/>
+      <c r="F56" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="G56" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="41" t="s">
         <v>486</v>
       </c>
@@ -19097,16 +19097,16 @@
         <v>566</v>
       </c>
       <c r="E57" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="41" t="s">
         <v>486</v>
       </c>
@@ -19120,16 +19120,16 @@
         <v>569</v>
       </c>
       <c r="E58" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="G58" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="47" t="s">
         <v>351</v>
       </c>
@@ -19142,15 +19142,15 @@
       <c r="D59" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="47"/>
+      <c r="F59" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="G59" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="47" t="s">
         <v>351</v>
       </c>
@@ -19163,15 +19163,15 @@
       <c r="D60" s="47" t="s">
         <v>574</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="47"/>
+      <c r="F60" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="G60" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="47"/>
       <c r="B61" s="47" t="s">
         <v>420</v>
@@ -19182,15 +19182,15 @@
       <c r="D61" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="47"/>
+      <c r="F61" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="47"/>
       <c r="B62" s="47" t="s">
         <v>420</v>
@@ -19201,15 +19201,15 @@
       <c r="D62" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="47"/>
+      <c r="F62" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="G62" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="47"/>
       <c r="B63" s="47" t="s">
         <v>420</v>
@@ -19220,15 +19220,15 @@
       <c r="D63" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="47"/>
+      <c r="F63" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G63" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="47"/>
       <c r="B64" s="47" t="s">
         <v>420</v>
@@ -19239,15 +19239,15 @@
       <c r="D64" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="47"/>
+      <c r="F64" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="47"/>
       <c r="B65" s="47" t="s">
         <v>420</v>
@@ -19258,15 +19258,15 @@
       <c r="D65" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="47"/>
+      <c r="F65" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G65" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F65" s="47"/>
-      <c r="G65" s="48" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="47" t="s">
         <v>268</v>
       </c>
@@ -19279,15 +19279,15 @@
       <c r="D66" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="47"/>
+      <c r="F66" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="G66" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="47"/>
       <c r="B67" s="47" t="s">
         <v>434</v>
@@ -19298,15 +19298,15 @@
       <c r="D67" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="47"/>
+      <c r="F67" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="G67" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="47"/>
       <c r="B68" s="47" t="s">
         <v>434</v>
@@ -19317,15 +19317,15 @@
       <c r="D68" s="47" t="s">
         <v>580</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="47"/>
+      <c r="F68" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="G68" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="47"/>
       <c r="B69" s="47" t="s">
         <v>434</v>
@@ -19336,15 +19336,15 @@
       <c r="D69" s="47" t="s">
         <v>583</v>
       </c>
-      <c r="E69" s="47" t="s">
+      <c r="E69" s="47"/>
+      <c r="F69" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="G69" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="47" t="s">
         <v>268</v>
       </c>
@@ -19357,15 +19357,15 @@
       <c r="D70" s="47" t="s">
         <v>585</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="47"/>
+      <c r="F70" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="G70" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="47" t="s">
         <v>351</v>
       </c>
@@ -19378,15 +19378,15 @@
       <c r="D71" s="47" t="s">
         <v>588</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E71" s="47"/>
+      <c r="F71" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="G71" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="47" t="s">
         <v>268</v>
       </c>
@@ -19400,16 +19400,16 @@
         <v>219</v>
       </c>
       <c r="E72" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="G72" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F72" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G72" s="48" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="47" t="s">
         <v>268</v>
       </c>
@@ -19422,15 +19422,15 @@
       <c r="D73" s="47" t="s">
         <v>593</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E73" s="47"/>
+      <c r="F73" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="G73" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F73" s="47"/>
-      <c r="G73" s="48" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="47" t="s">
         <v>268</v>
       </c>
@@ -19444,16 +19444,16 @@
         <v>216</v>
       </c>
       <c r="E74" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F74" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G74" s="48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="47" t="s">
         <v>268</v>
       </c>
@@ -19467,16 +19467,16 @@
         <v>598</v>
       </c>
       <c r="E75" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="G75" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G75" s="48" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="47" t="s">
         <v>268</v>
       </c>
@@ -19490,16 +19490,16 @@
         <v>601</v>
       </c>
       <c r="E76" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F76" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G76" s="48" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="47" t="s">
         <v>268</v>
       </c>
@@ -19513,16 +19513,16 @@
         <v>204</v>
       </c>
       <c r="E77" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="G77" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F77" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G77" s="48" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="47" t="s">
         <v>351</v>
       </c>
@@ -19536,16 +19536,16 @@
         <v>607</v>
       </c>
       <c r="E78" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="G78" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F78" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G78" s="48" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="47" t="s">
         <v>268</v>
       </c>
@@ -19559,16 +19559,16 @@
         <v>203</v>
       </c>
       <c r="E79" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="G79" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G79" s="48" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="47" t="s">
         <v>268</v>
       </c>
@@ -19581,15 +19581,15 @@
       <c r="D80" s="47" t="s">
         <v>613</v>
       </c>
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="47"/>
+      <c r="F80" s="48" t="s">
+        <v>614</v>
+      </c>
+      <c r="G80" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F80" s="47"/>
-      <c r="G80" s="48" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="47" t="s">
         <v>268</v>
       </c>
@@ -19603,16 +19603,16 @@
         <v>474</v>
       </c>
       <c r="E81" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="G81" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G81" s="48" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="47" t="s">
         <v>351</v>
       </c>
@@ -19626,16 +19626,16 @@
         <v>478</v>
       </c>
       <c r="E82" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F82" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G82" s="48" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="47" t="s">
         <v>351</v>
       </c>
@@ -19649,16 +19649,16 @@
         <v>484</v>
       </c>
       <c r="E83" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="G83" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F83" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G83" s="48" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="47" t="s">
         <v>351</v>
       </c>
@@ -19672,20 +19672,20 @@
         <v>620</v>
       </c>
       <c r="E84" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="G84" s="47" t="s">
         <v>91</v>
-      </c>
-      <c r="F84" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="G84" s="48" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -19696,16 +19696,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -19752,13 +19752,13 @@
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -22622,7 +22622,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -22633,16 +22633,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -22689,13 +22689,13 @@
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -25641,7 +25641,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -25652,16 +25652,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -25701,13 +25701,13 @@
         <v>242</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>91</v>
@@ -27709,7 +27709,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559251174" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -27720,16 +27720,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559251174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559251174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559251174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/resources/サーバチェックシート.xlsx
+++ b/src/test/resources/サーバチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -27,17 +27,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1559679169" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1559679169" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1559679169" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1559679169"/>
+      <pm:revision xmlns:pm="smNativeData" day="1559681312" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1559681312" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1559681312" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1559681312"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="715">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>RH6</t>
   </si>
   <si>
     <t>cent61b</t>
@@ -2220,7 +2217,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -2235,7 +2232,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2251,7 +2248,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2267,7 +2264,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2284,7 +2281,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -2301,7 +2298,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -2317,7 +2314,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -2333,7 +2330,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2349,7 +2346,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1559679169" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1559681312" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2371,7 +2368,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2382,7 +2379,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2393,7 +2390,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2413,7 +2410,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2424,7 +2421,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2435,7 +2432,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2446,7 +2443,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2457,7 +2454,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2468,7 +2465,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2479,7 +2476,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2490,7 +2487,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2501,7 +2498,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2512,7 +2509,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2523,7 +2520,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2534,7 +2531,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2545,7 +2542,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2556,7 +2553,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2567,7 +2564,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2578,7 +2575,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2589,7 +2586,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1559679169" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1559681312" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2614,7 +2611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169"/>
+          <pm:border xmlns:pm="smNativeData" id="1559681312"/>
         </ext>
       </extLst>
     </border>
@@ -2633,7 +2630,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2657,7 +2654,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2681,7 +2678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2705,7 +2702,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2728,7 +2725,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2752,7 +2749,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2773,7 +2770,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2795,7 +2792,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2816,7 +2813,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2838,7 +2835,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2860,7 +2857,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2881,7 +2878,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2903,7 +2900,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2926,7 +2923,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2948,7 +2945,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2971,7 +2968,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2992,7 +2989,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169"/>
+          <pm:border xmlns:pm="smNativeData" id="1559681312"/>
         </ext>
       </extLst>
     </border>
@@ -3011,7 +3008,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -3032,7 +3029,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3056,7 +3053,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3080,7 +3077,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3103,7 +3100,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -3127,7 +3124,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -3151,7 +3148,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1559679169">
+          <pm:border xmlns:pm="smNativeData" id="1559681312">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3343,10 +3340,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1559679169" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1559681312" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1559679169" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1559681312" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -6510,7 +6507,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6521,16 +6518,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6574,16 +6571,16 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -6654,58 +6651,58 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -6723,13 +6720,13 @@
         <v>2.60000000000000009</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>6.70000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -6741,37 +6738,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="R3" s="14" t="s">
+      <c r="S3" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>639</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>640</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -6791,26 +6788,26 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -6830,7 +6827,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -6838,14 +6835,14 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -6865,7 +6862,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -6873,14 +6870,14 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>643</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>644</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -6900,7 +6897,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -6911,7 +6908,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -6940,7 +6937,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -9485,7 +9482,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9496,16 +9493,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9549,16 +9546,16 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -9629,58 +9626,58 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -9695,16 +9692,16 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>7.20000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -9717,30 +9714,30 @@
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="14" t="s">
         <v>653</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>654</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T3" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>656</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -9760,26 +9757,26 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>658</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>659</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>660</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>661</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -9799,7 +9796,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -9810,7 +9807,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -9830,7 +9827,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -9841,7 +9838,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -9861,7 +9858,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -9872,7 +9869,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -9901,7 +9898,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -9930,7 +9927,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -9959,7 +9956,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -9988,7 +9985,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -10017,7 +10014,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -10046,7 +10043,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -10075,7 +10072,7 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -10104,7 +10101,7 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -10133,7 +10130,7 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -10162,7 +10159,7 @@
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -10191,7 +10188,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -10220,7 +10217,7 @@
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -10249,7 +10246,7 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -10278,7 +10275,7 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -10307,7 +10304,7 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -10336,7 +10333,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -10365,7 +10362,7 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -10394,7 +10391,7 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -10423,7 +10420,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -10452,7 +10449,7 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -10481,7 +10478,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -10510,7 +10507,7 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -10539,7 +10536,7 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -10568,7 +10565,7 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -10597,7 +10594,7 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -10626,7 +10623,7 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -10655,7 +10652,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -10684,7 +10681,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -10713,7 +10710,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -10742,7 +10739,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -12504,7 +12501,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12515,16 +12512,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -12561,16 +12558,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>91</v>
@@ -12617,34 +12614,34 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>700</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12658,13 +12655,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>702</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>703</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>1</v>
@@ -12673,20 +12670,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>40</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>704</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -12702,16 +12699,16 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -12727,7 +12724,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -12748,7 +12745,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -12769,7 +12766,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -14586,7 +14583,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -14597,16 +14594,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -14619,8 +14616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -14800,9 +14797,7 @@
       <c r="E4" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="6"/>
@@ -14825,21 +14820,17 @@
         <v>137</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F5" s="31"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H5" s="29"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -14860,21 +14851,17 @@
         <v>137</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F6" s="31"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H6" s="29"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -14895,21 +14882,17 @@
         <v>137</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F7" s="31"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H7" s="29"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -14930,21 +14913,17 @@
         <v>137</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F8" s="31"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H8" s="29"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -14965,21 +14944,17 @@
         <v>137</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F9" s="31"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H9" s="29"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -15000,21 +14975,17 @@
         <v>137</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F10" s="31"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H10" s="29"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -15035,21 +15006,17 @@
         <v>137</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F11" s="31"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H11" s="29"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -15070,21 +15037,17 @@
         <v>137</v>
       </c>
       <c r="C12" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F12" s="31"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H12" s="29"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -15105,21 +15068,17 @@
         <v>137</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="F13" s="31"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="29" t="s">
-        <v>138</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -15148,9 +15107,7 @@
       <c r="E14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -15176,14 +15133,12 @@
         <v>88</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -15206,17 +15161,15 @@
         <v>137</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -15242,14 +15195,12 @@
         <v>92</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -15422,7 +15373,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15433,16 +15384,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15478,90 +15429,90 @@
   <sheetData>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>190</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>66</v>
@@ -15589,45 +15540,45 @@
       <c r="V4" s="32"/>
       <c r="W4" s="32"/>
       <c r="X4" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y4" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Z4" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>193</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="5" spans="1:26" hidden="1">
       <c r="A5" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>170</v>
-      </c>
       <c r="H5" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>196</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>197</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
@@ -15644,17 +15595,17 @@
       <c r="X5" s="32"/>
       <c r="Y5" s="32"/>
       <c r="Z5" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:26" hidden="1">
       <c r="A6" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -15663,48 +15614,48 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>74</v>
       </c>
       <c r="K6" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>202</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O6" s="32"/>
       <c r="P6" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q6" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="R6" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="S6" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>207</v>
       </c>
       <c r="T6" s="32"/>
       <c r="U6" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="V6" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="W6" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="X6" s="32"/>
       <c r="Y6" s="32"/>
@@ -15713,13 +15664,13 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="7" spans="1:26" hidden="1">
       <c r="A7" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -15728,42 +15679,42 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>74</v>
       </c>
       <c r="K7" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>215</v>
-      </c>
       <c r="N7" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="R7" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="S7" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="T7" s="32"/>
       <c r="U7" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -15774,25 +15725,25 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="8" spans="1:26" hidden="1">
       <c r="A8" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>222</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>223</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -15802,14 +15753,14 @@
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
@@ -15817,17 +15768,17 @@
       <c r="X8" s="32"/>
       <c r="Y8" s="32"/>
       <c r="Z8" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="9" spans="1:26" hidden="1">
       <c r="A9" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -15843,14 +15794,14 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
@@ -15858,29 +15809,29 @@
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="10" spans="1:26" hidden="1">
       <c r="A10" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>232</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>233</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -15890,14 +15841,14 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
       <c r="T10" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
@@ -15905,11 +15856,11 @@
       <c r="X10" s="36"/>
       <c r="Y10" s="36"/>
       <c r="Z10" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -15942,7 +15893,7 @@
       <c r="Z11" s="36"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1559679169" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1559681312" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -16090,7 +16041,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16099,16 +16050,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16136,33 +16087,33 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16197,7 +16148,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16206,16 +16157,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16226,7 +16177,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:H86"/>
+  <dimension ref="A3:G86"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16242,7 +16193,7 @@
     <col min="6" max="6" width="68.372727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -16250,326 +16201,326 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>248</v>
-      </c>
       <c r="G4" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="42"/>
       <c r="B5" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="42"/>
       <c r="B6" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>255</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="42"/>
       <c r="B7" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>257</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>258</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="42"/>
       <c r="B8" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>260</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>261</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="42"/>
       <c r="B9" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="42"/>
       <c r="B10" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>265</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>266</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="42" t="s">
+      <c r="B11" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>270</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="42"/>
       <c r="B12" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="42" t="s">
         <v>273</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>274</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>276</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>277</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="42"/>
       <c r="B14" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>279</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>280</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="D15" s="44" t="s">
         <v>282</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>283</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="42"/>
       <c r="B16" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="D16" s="42" t="s">
         <v>286</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>287</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="42"/>
       <c r="B17" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>288</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>289</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>291</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>292</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="42" t="s">
+      <c r="D19" s="42" t="s">
         <v>294</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>295</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>296</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>297</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>131</v>
@@ -16578,1382 +16529,1382 @@
         <v>136</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="42" t="s">
+      <c r="C21" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="D21" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="E21" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F21" s="43" t="s">
+      <c r="G21" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="C22" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="D22" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="E22" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>306</v>
-      </c>
       <c r="G22" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="44"/>
       <c r="B23" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="42" t="s">
         <v>308</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>309</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>310</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>311</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="D25" s="42" t="s">
         <v>313</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>314</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="D26" s="42" t="s">
         <v>316</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>317</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>319</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>320</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="42" t="s">
+      <c r="D28" s="42" t="s">
         <v>322</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>323</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="G28" s="42" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="42" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="42" t="s">
+      <c r="B29" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" s="42" t="s">
+      <c r="D29" s="42" t="s">
         <v>327</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>328</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>340</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>359</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>397</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:7">
       <c r="A57" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>409</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>410</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:7">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:7">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:7">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>429</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:7">
       <c r="A66" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:7">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>435</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>438</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:7">
       <c r="A69" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>441</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:7">
       <c r="A70" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>445</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:7">
       <c r="A71" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:7">
       <c r="A72" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="E72" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:7">
       <c r="A75" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:7">
       <c r="A76" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:7">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C77" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C78" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="E78" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>468</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>469</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:7">
       <c r="A79" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C79" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>471</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:7">
       <c r="A80" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="E80" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>475</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:7">
       <c r="A81" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="E81" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>478</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>479</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:7">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:7">
       <c r="A83" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="E83" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:7">
       <c r="A84" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>490</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:7">
       <c r="A85" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>487</v>
-      </c>
       <c r="C85" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>492</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:7">
       <c r="A86" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>487</v>
-      </c>
       <c r="C86" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>495</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>84</v>
@@ -17963,7 +17914,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -17974,16 +17925,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -17994,9 +17945,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:H84"/>
+  <dimension ref="A4:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="75" workbookViewId="0">
+    <sheetView view="normal" zoomScale="75" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -18010,326 +17961,326 @@
     <col min="7" max="7" width="8.845455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="46" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>248</v>
-      </c>
       <c r="G4" s="46" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="42"/>
       <c r="B5" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>251</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="42"/>
       <c r="B6" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>255</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="42"/>
       <c r="B7" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>257</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>258</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="42"/>
       <c r="B8" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>260</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>261</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="42"/>
       <c r="B9" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="42"/>
       <c r="B10" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>265</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>266</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="42" t="s">
+      <c r="B11" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>270</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="42"/>
       <c r="B12" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="42" t="s">
         <v>273</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>274</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="42"/>
       <c r="B13" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>276</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>277</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="42"/>
       <c r="B14" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>279</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>280</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="D15" s="44" t="s">
         <v>282</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>283</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="42"/>
       <c r="B16" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="D16" s="42" t="s">
         <v>286</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>287</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="42"/>
       <c r="B17" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>288</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>289</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="42"/>
       <c r="B18" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>291</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>292</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>294</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>295</v>
       </c>
       <c r="E19" s="42"/>
       <c r="F19" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>296</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>297</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>131</v>
@@ -18338,1344 +18289,1344 @@
         <v>136</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F20" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="42" t="s">
+      <c r="C21" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="D21" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="E21" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F21" s="43" t="s">
+      <c r="G21" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="C22" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="D22" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="E22" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>306</v>
-      </c>
       <c r="G22" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="44"/>
       <c r="B23" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="42" t="s">
         <v>308</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>309</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>310</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>311</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="D25" s="42" t="s">
         <v>313</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>314</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="D26" s="42" t="s">
         <v>316</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>317</v>
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>319</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>320</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="42" t="s">
+      <c r="D28" s="42" t="s">
         <v>322</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>323</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="42" t="s">
         <v>327</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>328</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="47"/>
       <c r="B30" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="D30" s="47" t="s">
         <v>498</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>499</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G30" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="47"/>
       <c r="B31" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C31" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>500</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>501</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G31" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="47"/>
       <c r="B32" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C32" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>502</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>503</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G32" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" s="47"/>
       <c r="B33" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C33" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" s="47" t="s">
         <v>504</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>505</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G33" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="47"/>
       <c r="B34" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C34" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="D34" s="47" t="s">
         <v>506</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>507</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G34" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G35" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:7">
       <c r="A36" s="47"/>
       <c r="B36" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="D36" s="47" t="s">
         <v>511</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>512</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G36" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="47"/>
       <c r="B37" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C37" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>513</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>514</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G37" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="47"/>
       <c r="B38" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C38" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="D38" s="47" t="s">
         <v>516</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>517</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G38" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="47"/>
       <c r="B39" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C39" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" s="47" t="s">
         <v>519</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>520</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G39" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C40" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>522</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>523</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G40" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="47"/>
       <c r="B41" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" s="47"/>
       <c r="F41" s="48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G41" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="47"/>
       <c r="B42" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C42" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="D42" s="47" t="s">
         <v>526</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>527</v>
       </c>
       <c r="E42" s="47"/>
       <c r="F42" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G42" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" s="47"/>
       <c r="B43" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="47"/>
       <c r="F43" s="48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" s="47"/>
       <c r="B44" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C44" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="D44" s="47" t="s">
         <v>530</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>531</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G44" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G45" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D46" s="47" t="s">
         <v>535</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="E46" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="48" t="s">
         <v>536</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>537</v>
       </c>
       <c r="G46" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="48" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G47" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:7">
       <c r="A48" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G48" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="D49" s="47" t="s">
         <v>542</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>543</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G49" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="D50" s="47" t="s">
         <v>546</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>547</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="48" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G50" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="47"/>
       <c r="B51" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="D51" s="47" t="s">
         <v>549</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>550</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G51" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="47"/>
       <c r="B52" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="D52" s="47" t="s">
         <v>551</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>552</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G52" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="D53" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="E53" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="48" t="s">
         <v>554</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>555</v>
       </c>
       <c r="G53" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:7">
       <c r="A54" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="D54" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="E54" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="48" t="s">
         <v>557</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>558</v>
       </c>
       <c r="G54" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="47" t="s">
         <v>559</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="E55" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="48" t="s">
         <v>560</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>561</v>
       </c>
       <c r="G55" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="D56" s="47" t="s">
         <v>562</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>563</v>
       </c>
       <c r="E56" s="47"/>
       <c r="F56" s="48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G56" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:7">
       <c r="A57" s="41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="E57" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="40" t="s">
         <v>566</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>567</v>
       </c>
       <c r="G57" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="D58" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="E58" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>569</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>570</v>
       </c>
       <c r="G58" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E59" s="47"/>
       <c r="F59" s="48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G59" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:7">
       <c r="A60" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="D60" s="47" t="s">
         <v>573</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>574</v>
       </c>
       <c r="E60" s="47"/>
       <c r="F60" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G60" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="47"/>
       <c r="B61" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="D61" s="47" t="s">
         <v>421</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>422</v>
       </c>
       <c r="E61" s="47"/>
       <c r="F61" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G61" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" s="47"/>
       <c r="B62" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E62" s="47"/>
       <c r="F62" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G62" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:7">
       <c r="A63" s="47"/>
       <c r="B63" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E63" s="47"/>
       <c r="F63" s="48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G63" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:7">
       <c r="A64" s="47"/>
       <c r="B64" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E64" s="47"/>
       <c r="F64" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G64" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:7">
       <c r="A65" s="47"/>
       <c r="B65" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>74</v>
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G65" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:7">
       <c r="A66" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C66" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="D66" s="47" t="s">
         <v>431</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>432</v>
       </c>
       <c r="E66" s="47"/>
       <c r="F66" s="48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G66" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:7">
       <c r="A67" s="47"/>
       <c r="B67" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E67" s="47"/>
       <c r="F67" s="48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G67" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" s="47"/>
       <c r="B68" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C68" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="D68" s="47" t="s">
         <v>579</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>580</v>
       </c>
       <c r="E68" s="47"/>
       <c r="F68" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G68" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:7">
       <c r="A69" s="47"/>
       <c r="B69" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="D69" s="47" t="s">
         <v>582</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>583</v>
       </c>
       <c r="E69" s="47"/>
       <c r="F69" s="48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G69" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:7">
       <c r="A70" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E70" s="47"/>
       <c r="F70" s="48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G70" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:7">
       <c r="A71" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C71" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="D71" s="47" t="s">
         <v>587</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>588</v>
       </c>
       <c r="E71" s="47"/>
       <c r="F71" s="48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G71" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:7">
       <c r="A72" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C72" s="47" t="s">
+        <v>589</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="48" t="s">
         <v>590</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F72" s="48" t="s">
-        <v>591</v>
       </c>
       <c r="G72" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C73" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="D73" s="47" t="s">
         <v>592</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>593</v>
       </c>
       <c r="E73" s="47"/>
       <c r="F73" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G73" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G74" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:7">
       <c r="A75" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="C75" s="47" t="s">
         <v>596</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="D75" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="E75" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="48" t="s">
         <v>598</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>599</v>
       </c>
       <c r="G75" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:7">
       <c r="A76" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C76" s="47" t="s">
+        <v>599</v>
+      </c>
+      <c r="D76" s="47" t="s">
         <v>600</v>
       </c>
-      <c r="D76" s="47" t="s">
+      <c r="E76" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="48" t="s">
         <v>601</v>
-      </c>
-      <c r="E76" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>602</v>
       </c>
       <c r="G76" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:7">
       <c r="A77" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F77" s="48" t="s">
         <v>603</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="E77" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F77" s="48" t="s">
-        <v>604</v>
       </c>
       <c r="G77" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B78" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="C78" s="47" t="s">
         <v>605</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="D78" s="47" t="s">
         <v>606</v>
       </c>
-      <c r="D78" s="47" t="s">
+      <c r="E78" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="48" t="s">
         <v>607</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F78" s="48" t="s">
-        <v>608</v>
       </c>
       <c r="G78" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:7">
       <c r="A79" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C79" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="48" t="s">
         <v>609</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F79" s="48" t="s">
-        <v>610</v>
       </c>
       <c r="G79" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:7">
       <c r="A80" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B80" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="C80" s="47" t="s">
         <v>611</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="D80" s="47" t="s">
         <v>612</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>613</v>
       </c>
       <c r="E80" s="47"/>
       <c r="F80" s="48" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G80" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:7">
       <c r="A81" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C81" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="D81" s="47" t="s">
-        <v>474</v>
-      </c>
       <c r="E81" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G81" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:7">
       <c r="A82" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B82" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="D82" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="D82" s="47" t="s">
-        <v>478</v>
-      </c>
       <c r="E82" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G82" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:7">
       <c r="A83" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="D83" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="D83" s="47" t="s">
-        <v>484</v>
-      </c>
       <c r="E83" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F83" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G83" s="47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:7">
       <c r="A84" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B84" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="C84" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="D84" s="47" t="s">
         <v>619</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="E84" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="48" t="s">
         <v>620</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="F84" s="48" t="s">
-        <v>621</v>
       </c>
       <c r="G84" s="47" t="s">
         <v>91</v>
@@ -19685,7 +19636,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -19696,16 +19647,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -19749,16 +19700,16 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -19829,58 +19780,58 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -19892,39 +19843,39 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>635</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>636</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>639</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>640</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -19944,7 +19895,7 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
@@ -19952,14 +19903,14 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>643</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>644</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -19979,7 +19930,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -19990,7 +19941,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -20010,7 +19961,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -20021,7 +19972,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -20041,7 +19992,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -22622,7 +22573,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -22633,16 +22584,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -22686,16 +22637,16 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>84</v>
@@ -22766,58 +22717,58 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -22832,16 +22783,16 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>7.20000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -22854,30 +22805,30 @@
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="14" t="s">
         <v>653</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>654</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T3" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>656</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -22897,26 +22848,26 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>658</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>659</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>660</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>661</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -22936,7 +22887,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -22947,7 +22898,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -22967,7 +22918,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -22978,7 +22929,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -22998,7 +22949,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -23009,7 +22960,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -23038,7 +22989,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -23067,7 +23018,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -23096,7 +23047,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -23125,7 +23076,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -23154,7 +23105,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -23183,7 +23134,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -23212,7 +23163,7 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -23241,7 +23192,7 @@
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -23270,7 +23221,7 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -23299,7 +23250,7 @@
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -23328,7 +23279,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -23357,7 +23308,7 @@
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -23386,7 +23337,7 @@
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -23415,7 +23366,7 @@
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -23444,7 +23395,7 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -23473,7 +23424,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -23502,7 +23453,7 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -23531,7 +23482,7 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -23560,7 +23511,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -23589,7 +23540,7 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -23618,7 +23569,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -23647,7 +23598,7 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -23676,7 +23627,7 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -23705,7 +23656,7 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -23734,7 +23685,7 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -23763,7 +23714,7 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -23792,7 +23743,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -23821,7 +23772,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -23850,7 +23801,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -23879,7 +23830,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -25641,7 +25592,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -25652,16 +25603,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -25698,16 +25649,16 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>91</v>
@@ -25754,34 +25705,34 @@
         <v>135</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>700</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -25792,24 +25743,24 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>702</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>703</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>704</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -25825,16 +25776,16 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -25850,7 +25801,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -25871,7 +25822,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -25892,7 +25843,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -27709,7 +27660,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1559679169" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1559681312" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -27720,16 +27671,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1559679169" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1559679169" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1559681312" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1559681312" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559679169" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1559681312" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
